--- a/设计文档/表格/Cellnature.xlsx
+++ b/设计文档/表格/Cellnature.xlsx
@@ -324,51 +324,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="34">
   <si>
-    <t>编号</t>
-  </si>
-  <si>
-    <t>地块名称</t>
-  </si>
-  <si>
-    <t>地块尺寸</t>
-  </si>
-  <si>
-    <t>通行效率</t>
-  </si>
-  <si>
-    <t>攻击加成</t>
-  </si>
-  <si>
-    <t>防御加成</t>
-  </si>
-  <si>
-    <t>命中加成</t>
-  </si>
-  <si>
-    <t>闪避加成</t>
-  </si>
-  <si>
-    <t>生命回复</t>
-  </si>
-  <si>
-    <t>破坏次数</t>
-  </si>
-  <si>
-    <t>母地块</t>
-  </si>
-  <si>
-    <t>地块最小占比</t>
-  </si>
-  <si>
-    <t>地块最大占比</t>
-  </si>
-  <si>
-    <t>边界最小距离</t>
-  </si>
-  <si>
-    <t>相同地块最小距离</t>
-  </si>
-  <si>
     <t>草地</t>
   </si>
   <si>
@@ -425,6 +380,66 @@
   <si>
     <t>1#1
 2#1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CellID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CellName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CellSize</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PassEff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AtkAdd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DefAdd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HitAdd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EvAdd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HPRecovery</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AtkTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MotherCell</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MinCent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaxCent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MinDistance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SameDistance</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -435,7 +450,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -493,8 +508,14 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -504,6 +525,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -535,7 +562,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -574,6 +601,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -886,13 +916,17 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R6" sqref="R6"/>
+      <selection pane="bottomLeft" activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="12"/>
-    <col min="2" max="11" width="9" style="11"/>
+    <col min="2" max="2" width="10.875" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="8" width="9" style="11"/>
+    <col min="9" max="9" width="13.625" style="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.625" style="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.375" style="11" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12.125" style="13" customWidth="1"/>
     <col min="13" max="13" width="12.5" style="13" customWidth="1"/>
     <col min="14" max="14" width="13.25" style="11" customWidth="1"/>
@@ -908,49 +942,49 @@
   <sheetData>
     <row r="1" spans="1:15" s="10" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="7" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="K1" s="8" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="L1" s="9" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="M1" s="9" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="N1" s="8" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="O1" s="8" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="33" x14ac:dyDescent="0.15">
@@ -958,13 +992,13 @@
         <v>1001</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D2" s="1">
-        <v>100</v>
+        <v>18</v>
+      </c>
+      <c r="D2" s="14">
+        <v>1</v>
       </c>
       <c r="E2" s="2">
         <v>0</v>
@@ -997,13 +1031,13 @@
         <v>1002</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D3" s="1">
-        <v>100</v>
+        <v>18</v>
+      </c>
+      <c r="D3" s="14">
+        <v>1</v>
       </c>
       <c r="E3" s="2">
         <v>0</v>
@@ -1040,13 +1074,13 @@
         <v>1003</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D4" s="1">
-        <v>70</v>
+        <v>18</v>
+      </c>
+      <c r="D4" s="14">
+        <v>2</v>
       </c>
       <c r="E4" s="2">
         <v>0</v>
@@ -1083,12 +1117,12 @@
         <v>1004</v>
       </c>
       <c r="B5" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D5" s="1"/>
+      <c r="D5" s="14"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
@@ -1114,13 +1148,13 @@
         <v>1005</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D6" s="1">
-        <v>100</v>
+        <v>18</v>
+      </c>
+      <c r="D6" s="14">
+        <v>1</v>
       </c>
       <c r="E6" s="2">
         <v>0</v>
@@ -1157,13 +1191,13 @@
         <v>1006</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7" s="1">
-        <v>70</v>
+        <v>18</v>
+      </c>
+      <c r="D7" s="14">
+        <v>2</v>
       </c>
       <c r="E7" s="2">
         <v>0</v>
@@ -1202,14 +1236,12 @@
         <v>1007</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D8" s="1">
-        <v>0</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="D8" s="14"/>
       <c r="E8" s="2">
         <v>0</v>
       </c>
@@ -1249,13 +1281,13 @@
         <v>1008</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D9" s="1">
-        <v>100</v>
+        <v>18</v>
+      </c>
+      <c r="D9" s="14">
+        <v>1</v>
       </c>
       <c r="E9" s="2">
         <v>0</v>
@@ -1292,13 +1324,13 @@
         <v>1009</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" s="1">
-        <v>80</v>
+        <v>18</v>
+      </c>
+      <c r="D10" s="14">
+        <v>1</v>
       </c>
       <c r="E10" s="2">
         <v>0</v>
@@ -1335,13 +1367,13 @@
         <v>1010</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" s="1">
-        <v>80</v>
+        <v>18</v>
+      </c>
+      <c r="D11" s="14">
+        <v>1</v>
       </c>
       <c r="E11" s="2">
         <v>0</v>
@@ -1378,13 +1410,13 @@
         <v>1011</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D12" s="1">
-        <v>80</v>
+        <v>18</v>
+      </c>
+      <c r="D12" s="14">
+        <v>1</v>
       </c>
       <c r="E12" s="2">
         <v>3</v>
@@ -1421,14 +1453,12 @@
         <v>1012</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D13" s="1">
-        <v>0</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="D13" s="14"/>
       <c r="E13" s="2">
         <v>0</v>
       </c>
@@ -1464,13 +1494,13 @@
         <v>1013</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D14" s="1">
-        <v>100</v>
+        <v>18</v>
+      </c>
+      <c r="D14" s="14">
+        <v>1</v>
       </c>
       <c r="E14" s="2">
         <v>0</v>
@@ -1509,12 +1539,12 @@
         <v>1014</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D15" s="1"/>
+        <v>18</v>
+      </c>
+      <c r="D15" s="14"/>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
@@ -1540,13 +1570,13 @@
         <v>1015</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D16" s="1">
-        <v>100</v>
+        <v>18</v>
+      </c>
+      <c r="D16" s="14">
+        <v>1</v>
       </c>
       <c r="E16" s="2">
         <v>5</v>
@@ -1585,13 +1615,13 @@
         <v>1016</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D17" s="1">
-        <v>10</v>
+        <v>18</v>
+      </c>
+      <c r="D17" s="14">
+        <v>3</v>
       </c>
       <c r="E17" s="2">
         <v>0</v>
@@ -1628,12 +1658,12 @@
         <v>1017</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D18" s="1"/>
+        <v>18</v>
+      </c>
+      <c r="D18" s="14"/>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
@@ -1661,13 +1691,13 @@
         <v>1018</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D19" s="1">
-        <v>50</v>
+        <v>18</v>
+      </c>
+      <c r="D19" s="14">
+        <v>2</v>
       </c>
       <c r="E19" s="2">
         <v>0</v>
